--- a/range_survey.xlsx
+++ b/range_survey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="33">
   <si>
     <t>Age</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>under 500</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>over 1000</t>
@@ -522,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -548,10 +551,10 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -570,14 +573,14 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -600,7 +603,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -626,7 +629,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -678,7 +681,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -704,10 +707,10 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -726,14 +729,14 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -756,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -778,14 +781,14 @@
       <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -808,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -834,7 +837,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -860,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -886,10 +889,10 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -908,17 +911,17 @@
       <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -941,13 +944,13 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -967,16 +970,16 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -999,13 +1002,13 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1028,13 +1031,13 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1057,13 +1060,13 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1086,13 +1089,13 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1112,16 +1115,16 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1141,16 +1144,16 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1173,13 +1176,13 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1202,13 +1205,13 @@
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1228,16 +1231,16 @@
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1260,13 +1263,13 @@
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1289,13 +1292,13 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1318,13 +1321,13 @@
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1347,13 +1350,13 @@
         <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1376,13 +1379,13 @@
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1402,16 +1405,16 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1434,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1463,13 +1466,13 @@
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1492,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1521,13 +1524,13 @@
         <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1550,13 +1553,13 @@
         <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1579,13 +1582,13 @@
         <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1608,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1637,13 +1640,13 @@
         <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1663,16 +1666,16 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1691,17 +1694,17 @@
       <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1724,13 +1727,13 @@
         <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
         <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1750,16 +1753,16 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1782,13 +1785,13 @@
         <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1811,13 +1814,13 @@
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1840,13 +1843,13 @@
         <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1866,16 +1869,16 @@
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1898,13 +1901,13 @@
         <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
